--- a/Data/Processing/2024-02-02/ABB.xlsx
+++ b/Data/Processing/2024-02-02/ABB.xlsx
@@ -619,7 +619,7 @@
         <v>2840.78</v>
       </c>
       <c r="D2">
-        <v>2767.99</v>
+        <v>2768</v>
       </c>
       <c r="E2">
         <v>2797.76</v>
@@ -1363,7 +1363,7 @@
         <v>44981</v>
       </c>
       <c r="B17">
-        <v>3144.9</v>
+        <v>3144.91</v>
       </c>
       <c r="C17">
         <v>3164.85</v>
@@ -1393,7 +1393,7 @@
         <v>-0.7</v>
       </c>
       <c r="L17">
-        <v>15.6</v>
+        <v>15.61</v>
       </c>
       <c r="M17">
         <v>0.32</v>
